--- a/My Architecture/ISA and Control Unit/MIPS ISA & Control Unit.xlsx
+++ b/My Architecture/ISA and Control Unit/MIPS ISA & Control Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Wahidi\Desktop\ENG.ASU\@Digital Domain\Courses\Computer Architecture AbdulKareem\Architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Wahidi\Desktop\ENG.ASU\@Digital Domain\Projects\MIPS 32 Bit SingleCycle Processor\repo\MIPS-32-Bit-SingleCycle-Processor\My Architecture\ISA and Control Unit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68156C91-5A12-4A7A-BBF7-794DF331CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB183E91-AB8D-4AA3-8ECA-7B74876BC408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main ISA" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="473">
   <si>
     <t xml:space="preserve">Opcode </t>
   </si>
@@ -959,15 +959,6 @@
 and, or, xor, nor
 slt, sltu,
 lui, ori</t>
-  </si>
-  <si>
-    <t>Assignment #3</t>
-  </si>
-  <si>
-    <t>Assignment #5</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Instruction</t>
@@ -1668,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1738,27 +1729,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1894,12 +1877,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1934,13 +1911,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>387568</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>158609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>317740</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>141102</xdr:rowOff>
@@ -1978,13 +1955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>451481</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>134200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112188</xdr:rowOff>
@@ -2027,14 +2004,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>243052</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>366019</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584891</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>69930</xdr:rowOff>
     </xdr:to>
@@ -2073,28 +2050,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D33F033-7401-4F1F-8987-FB63CD7DF6BC}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:E31" xr:uid="{0D33F033-7401-4F1F-8987-FB63CD7DF6BC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6F141741-2C51-4220-AFC7-E5871EC6CD8F}" name="Opcode " dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{94AD8F24-8B7B-488A-B2A5-515BD41E7F08}" name="Name " dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{F54D0553-BC6A-48B5-9E0F-A0BF767398A8}" name="Description " dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{E6BC317F-8DC6-4A10-97A3-062D0A6033C4}" name="Operation" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{4C0751C6-22DE-48F3-A333-C0824C0F0EFD}" name="Comments" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D33F033-7401-4F1F-8987-FB63CD7DF6BC}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:D31" xr:uid="{0D33F033-7401-4F1F-8987-FB63CD7DF6BC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6F141741-2C51-4220-AFC7-E5871EC6CD8F}" name="Opcode " dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{94AD8F24-8B7B-488A-B2A5-515BD41E7F08}" name="Name " dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F54D0553-BC6A-48B5-9E0F-A0BF767398A8}" name="Description " dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E6BC317F-8DC6-4A10-97A3-062D0A6033C4}" name="Operation" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{151E0FC9-74A1-4492-82A5-A6974E379F5E}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:E29" xr:uid="{151E0FC9-74A1-4492-82A5-A6974E379F5E}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CD4B495D-BEBD-4687-9E48-13E31F1A5458}" name="Funct " dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E7F73B4A-D35B-4A89-BCB0-DFA47DFF3033}" name="Name " dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{87DDDCA8-8D3D-45D9-835E-8024A1DEE513}" name="Description " dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1A74FB59-C961-44A8-A91C-BB37DF112620}" name="Operation" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{916118AB-C4A0-47F3-87B2-8F2F5A96272D}" name="Comments" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{151E0FC9-74A1-4492-82A5-A6974E379F5E}" name="Table2" displayName="Table2" ref="A1:D29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:D29" xr:uid="{151E0FC9-74A1-4492-82A5-A6974E379F5E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CD4B495D-BEBD-4687-9E48-13E31F1A5458}" name="Funct " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E7F73B4A-D35B-4A89-BCB0-DFA47DFF3033}" name="Name " dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{87DDDCA8-8D3D-45D9-835E-8024A1DEE513}" name="Description " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1A74FB59-C961-44A8-A91C-BB37DF112620}" name="Operation" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2408,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,10 +2395,9 @@
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,11 +2410,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2453,9 +2424,8 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
@@ -2468,9 +2438,8 @@
       <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2483,9 +2452,8 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2498,9 +2466,8 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2513,9 +2480,8 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2528,9 +2494,8 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2543,9 +2508,8 @@
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2558,9 +2522,8 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2573,9 +2536,8 @@
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -2588,11 +2550,8 @@
       <c r="D11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -2605,9 +2564,8 @@
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2620,11 +2578,8 @@
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2637,9 +2592,8 @@
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2652,9 +2606,8 @@
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2667,9 +2620,8 @@
       <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2682,9 +2634,8 @@
       <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
@@ -2697,11 +2648,8 @@
       <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2714,9 +2662,8 @@
       <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -2729,9 +2676,8 @@
       <c r="D20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -2744,9 +2690,8 @@
       <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2759,9 +2704,8 @@
       <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -2774,9 +2718,8 @@
       <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2789,9 +2732,8 @@
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2804,11 +2746,8 @@
       <c r="D25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2821,11 +2760,8 @@
       <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2838,9 +2774,8 @@
       <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -2853,9 +2788,8 @@
       <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -2868,9 +2802,8 @@
       <c r="D29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -2883,9 +2816,8 @@
       <c r="D30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
@@ -2898,7 +2830,6 @@
       <c r="D31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2912,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8344681D-13F5-4AA9-8C1C-9376E6ED3191}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2857,7 @@
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2939,11 +2870,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2956,9 +2884,8 @@
       <c r="D2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2971,9 +2898,8 @@
       <c r="D3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2986,9 +2912,8 @@
       <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3001,9 +2926,8 @@
       <c r="D5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3016,9 +2940,8 @@
       <c r="D6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3031,9 +2954,8 @@
       <c r="D7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3046,9 +2968,8 @@
       <c r="D8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3061,9 +2982,8 @@
       <c r="D9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>145</v>
       </c>
@@ -3076,11 +2996,8 @@
       <c r="D10" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>149</v>
       </c>
@@ -3093,11 +3010,8 @@
       <c r="D11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
@@ -3110,9 +3024,8 @@
       <c r="D12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -3125,9 +3038,8 @@
       <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -3140,9 +3052,8 @@
       <c r="D14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
@@ -3155,9 +3066,8 @@
       <c r="D15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -3170,9 +3080,8 @@
       <c r="D16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -3185,11 +3094,8 @@
       <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -3202,9 +3108,8 @@
       <c r="D18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
@@ -3217,11 +3122,8 @@
       <c r="D19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -3234,9 +3136,8 @@
       <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -3249,11 +3150,8 @@
       <c r="D21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>185</v>
       </c>
@@ -3266,9 +3164,8 @@
       <c r="D22" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -3281,11 +3178,8 @@
       <c r="D23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -3298,9 +3192,8 @@
       <c r="D24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -3313,9 +3206,8 @@
       <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>197</v>
       </c>
@@ -3328,9 +3220,8 @@
       <c r="D26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>201</v>
       </c>
@@ -3343,9 +3234,8 @@
       <c r="D27" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>205</v>
       </c>
@@ -3358,9 +3248,8 @@
       <c r="D28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -3372,9 +3261,6 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3390,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A529840E-1C1E-4789-B7C1-A5C3FA17C3B9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3873,86 +3759,86 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O1" s="22"/>
       <c r="P1" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q1" s="22"/>
       <c r="R1" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S1" s="22"/>
       <c r="T1" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U1" s="22"/>
       <c r="V1" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="W1" s="22"/>
       <c r="X1" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="22"/>
       <c r="AD1" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AE1" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF1" s="18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AG1" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AH1" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -3961,15 +3847,15 @@
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O2" s="23"/>
       <c r="P2" s="23">
@@ -3977,11 +3863,11 @@
       </c>
       <c r="Q2" s="23"/>
       <c r="R2" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S2" s="23"/>
       <c r="T2" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U2" s="23"/>
       <c r="V2" s="23">
@@ -3989,37 +3875,37 @@
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y2" s="23"/>
       <c r="Z2" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC2" s="23"/>
       <c r="AD2" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG2" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI2" s="23"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -4034,15 +3920,15 @@
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22">
@@ -4050,11 +3936,11 @@
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22">
@@ -4062,37 +3948,37 @@
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG3" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH3" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -4107,15 +3993,15 @@
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22">
@@ -4123,11 +4009,11 @@
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="22">
@@ -4135,2926 +4021,2882 @@
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI4" s="22"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U5" s="22"/>
       <c r="V5" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y5" s="22"/>
       <c r="Z5" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC5" s="22"/>
       <c r="AD5" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG5" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH5" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI5" s="22"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U6" s="22"/>
       <c r="V6" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y6" s="22"/>
       <c r="Z6" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC6" s="22"/>
       <c r="AD6" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG6" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH6" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI6" s="22"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U7" s="22"/>
       <c r="V7" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="W7" s="22"/>
       <c r="X7" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y7" s="22"/>
       <c r="Z7" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC7" s="22"/>
       <c r="AD7" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG7" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI7" s="22"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="W8" s="22"/>
       <c r="X8" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC8" s="22"/>
       <c r="AD8" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG8" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI8" s="22"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W9" s="23"/>
       <c r="X9" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA9" s="23"/>
       <c r="AB9" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC9" s="23"/>
       <c r="AD9" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG9" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH9" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S10" s="23"/>
       <c r="T10" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W10" s="23"/>
       <c r="X10" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC10" s="23"/>
       <c r="AD10" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG10" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH10" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI10" s="23"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O11" s="23"/>
       <c r="P11" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U11" s="23"/>
       <c r="V11" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W11" s="23"/>
       <c r="X11" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA11" s="23"/>
       <c r="AB11" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC11" s="23"/>
       <c r="AD11" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH11" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI11" s="23"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W12" s="23"/>
       <c r="X12" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA12" s="23"/>
       <c r="AB12" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC12" s="23"/>
       <c r="AD12" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG12" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH12" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI12" s="23"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W13" s="23"/>
       <c r="X13" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA13" s="23"/>
       <c r="AB13" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG13" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH13" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI13" s="23"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W14" s="23"/>
       <c r="X14" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA14" s="23"/>
       <c r="AB14" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF14" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG14" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH14" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI14" s="23"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U15" s="22"/>
       <c r="V15" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W15" s="22"/>
       <c r="X15" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC15" s="22"/>
       <c r="AD15" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE15" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH15" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI15" s="22"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U16" s="22"/>
       <c r="V16" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W16" s="22"/>
       <c r="X16" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA16" s="22"/>
       <c r="AB16" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AC16" s="22"/>
       <c r="AD16" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE16" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH16" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI16" s="22"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W17" s="22"/>
       <c r="X17" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC17" s="22"/>
       <c r="AD17" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE17" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF17" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG17" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH17" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI17" s="22"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S18" s="22"/>
       <c r="T18" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U18" s="22"/>
       <c r="V18" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W18" s="22"/>
       <c r="X18" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AC18" s="22"/>
       <c r="AD18" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE18" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF18" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH18" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W19" s="22"/>
       <c r="X19" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y19" s="22"/>
       <c r="Z19" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA19" s="22"/>
       <c r="AB19" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC19" s="22"/>
       <c r="AD19" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE19" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF19" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG19" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH19" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI19" s="22"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O20" s="22"/>
       <c r="P20" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S20" s="22"/>
       <c r="T20" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U20" s="22"/>
       <c r="V20" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W20" s="22"/>
       <c r="X20" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y20" s="22"/>
       <c r="Z20" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA20" s="22"/>
       <c r="AB20" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC20" s="22"/>
       <c r="AD20" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE20" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF20" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG20" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH20" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI20" s="22"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W21" s="22"/>
       <c r="X21" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA21" s="22"/>
       <c r="AB21" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC21" s="22"/>
       <c r="AD21" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE21" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF21" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG21" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH21" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI21" s="22"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC22" s="22"/>
       <c r="AD22" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE22" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF22" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG22" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH22" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI22" s="22"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O23" s="22"/>
       <c r="P23" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U23" s="22"/>
       <c r="V23" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W23" s="22"/>
       <c r="X23" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y23" s="22"/>
       <c r="Z23" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA23" s="22"/>
       <c r="AB23" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC23" s="22"/>
       <c r="AD23" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE23" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF23" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG23" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH23" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI23" s="22"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O24" s="22"/>
       <c r="P24" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="22"/>
       <c r="R24" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S24" s="22"/>
       <c r="T24" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U24" s="22"/>
       <c r="V24" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W24" s="22"/>
       <c r="X24" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA24" s="22"/>
       <c r="AB24" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC24" s="22"/>
       <c r="AD24" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE24" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF24" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG24" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH24" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="22"/>
       <c r="R25" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W25" s="22"/>
       <c r="X25" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y25" s="22"/>
       <c r="Z25" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC25" s="22"/>
       <c r="AD25" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF25" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG25" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH25" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI25" s="22"/>
     </row>
     <row r="26" spans="1:35" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="24" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="M26" s="22"/>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="26" t="s">
+      <c r="S26" s="22"/>
+      <c r="T26" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="U26" s="22"/>
+      <c r="V26" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="W26" s="22"/>
+      <c r="X26" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="W26" s="22"/>
-      <c r="X26" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="26" t="s">
-        <v>392</v>
       </c>
       <c r="AC26" s="22"/>
       <c r="AD26" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF26" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH26" s="26" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="AH26" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="AI26" s="22"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q27" s="23"/>
       <c r="R27" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S27" s="23"/>
       <c r="T27" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W27" s="23"/>
       <c r="X27" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA27" s="23"/>
       <c r="AB27" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC27" s="23"/>
       <c r="AD27" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF27" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG27" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH27" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI27" s="23"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O28" s="23"/>
       <c r="P28" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S28" s="23"/>
       <c r="T28" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U28" s="23"/>
       <c r="V28" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W28" s="23"/>
       <c r="X28" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA28" s="23"/>
       <c r="AB28" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC28" s="23"/>
       <c r="AD28" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF28" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG28" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="23"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O29" s="23"/>
       <c r="P29" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="23"/>
       <c r="R29" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S29" s="23"/>
       <c r="T29" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U29" s="23"/>
       <c r="V29" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W29" s="23"/>
       <c r="X29" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AA29" s="23"/>
       <c r="AB29" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC29" s="23"/>
       <c r="AD29" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF29" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG29" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH29" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI29" s="23"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M30" s="23"/>
       <c r="N30" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q30" s="23"/>
       <c r="R30" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S30" s="23"/>
       <c r="T30" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U30" s="23"/>
       <c r="V30" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA30" s="23"/>
       <c r="AB30" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC30" s="23"/>
       <c r="AD30" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AE30" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF30" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG30" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH30" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI30" s="23"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M31" s="23"/>
       <c r="N31" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O31" s="23"/>
       <c r="P31" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q31" s="23"/>
       <c r="R31" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S31" s="23"/>
       <c r="T31" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U31" s="23"/>
       <c r="V31" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W31" s="23"/>
       <c r="X31" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA31" s="23"/>
       <c r="AB31" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC31" s="23"/>
       <c r="AD31" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AE31" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF31" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG31" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH31" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI31" s="23"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S32" s="22"/>
       <c r="T32" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="U32" s="22"/>
       <c r="V32" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W32" s="22"/>
       <c r="X32" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y32" s="22"/>
       <c r="Z32" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA32" s="22"/>
       <c r="AB32" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC32" s="22"/>
       <c r="AD32" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE32" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF32" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG32" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH32" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI32" s="22"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O33" s="22"/>
       <c r="P33" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S33" s="22"/>
       <c r="T33" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="U33" s="22"/>
       <c r="V33" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W33" s="22"/>
       <c r="X33" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y33" s="22"/>
       <c r="Z33" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA33" s="22"/>
       <c r="AB33" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC33" s="22"/>
       <c r="AD33" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE33" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF33" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG33" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH33" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI33" s="22"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O34" s="22"/>
       <c r="P34" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S34" s="22"/>
       <c r="T34" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U34" s="22"/>
       <c r="V34" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W34" s="22"/>
       <c r="X34" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA34" s="22"/>
       <c r="AB34" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC34" s="22"/>
       <c r="AD34" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE34" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF34" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI34" s="22"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O35" s="22"/>
       <c r="P35" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S35" s="22"/>
       <c r="T35" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U35" s="22"/>
       <c r="V35" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W35" s="22"/>
       <c r="X35" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y35" s="22"/>
       <c r="Z35" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA35" s="22"/>
       <c r="AB35" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC35" s="22"/>
       <c r="AD35" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE35" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF35" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG35" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH35" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI35" s="22"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O36" s="22"/>
       <c r="P36" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S36" s="22"/>
       <c r="T36" s="22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W36" s="22"/>
       <c r="X36" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA36" s="22"/>
       <c r="AB36" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC36" s="22"/>
       <c r="AD36" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF36" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG36" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH36" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AI36" s="22"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S37" s="22"/>
       <c r="T37" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U37" s="22"/>
       <c r="V37" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W37" s="22"/>
       <c r="X37" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y37" s="22"/>
       <c r="Z37" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA37" s="22"/>
       <c r="AB37" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AC37" s="22"/>
       <c r="AD37" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF37" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG37" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH37" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AI37" s="22"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S38" s="22"/>
       <c r="T38" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U38" s="22"/>
       <c r="V38" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W38" s="22"/>
       <c r="X38" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA38" s="22"/>
       <c r="AB38" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AC38" s="22"/>
       <c r="AD38" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE38" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF38" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG38" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH38" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AI38" s="22"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S39" s="22"/>
       <c r="T39" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="U39" s="22"/>
       <c r="V39" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W39" s="22"/>
       <c r="X39" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA39" s="22"/>
       <c r="AB39" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC39" s="22"/>
       <c r="AD39" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE39" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF39" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG39" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AH39" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AI39" s="22"/>
     </row>
-    <row r="40" spans="1:57" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE40" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF40" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG40" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH40" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI40" s="22"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE40" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF40" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG40" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH40" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="28"/>
-      <c r="AN40" s="28"/>
-      <c r="AO40" s="28"/>
-      <c r="AP40" s="29"/>
-      <c r="AQ40" s="29"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="29"/>
-      <c r="AT40" s="29"/>
-      <c r="AU40" s="29"/>
-      <c r="AV40" s="29"/>
-      <c r="AW40" s="29"/>
-      <c r="AX40" s="29"/>
-      <c r="AY40" s="29"/>
-      <c r="AZ40" s="29"/>
-      <c r="BA40" s="29"/>
-      <c r="BB40" s="29"/>
-      <c r="BC40" s="29"/>
-      <c r="BD40" s="29"/>
-      <c r="BE40" s="29"/>
-    </row>
-    <row r="41" spans="1:57" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27" t="s">
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE41" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF41" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG41" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH41" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE41" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF41" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG41" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH41" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="29"/>
-      <c r="AQ41" s="29"/>
-      <c r="AR41" s="29"/>
-      <c r="AS41" s="29"/>
-      <c r="AT41" s="29"/>
-      <c r="AU41" s="29"/>
-      <c r="AV41" s="29"/>
-      <c r="AW41" s="29"/>
-      <c r="AX41" s="29"/>
-      <c r="AY41" s="29"/>
-      <c r="AZ41" s="29"/>
-      <c r="BA41" s="29"/>
-      <c r="BB41" s="29"/>
-      <c r="BC41" s="29"/>
-      <c r="BD41" s="29"/>
-      <c r="BE41" s="29"/>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AI41" s="22"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M42" s="23"/>
       <c r="N42" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O42" s="23"/>
       <c r="P42" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="23"/>
       <c r="R42" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S42" s="23"/>
       <c r="T42" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U42" s="23"/>
       <c r="V42" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W42" s="23"/>
       <c r="X42" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA42" s="23"/>
       <c r="AB42" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC42" s="23"/>
       <c r="AD42" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE42" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF42" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG42" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH42" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AI42" s="23"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K43" s="23"/>
       <c r="L43" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O43" s="23"/>
       <c r="P43" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q43" s="23"/>
       <c r="R43" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U43" s="23"/>
       <c r="V43" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="W43" s="23"/>
       <c r="X43" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y43" s="23"/>
       <c r="Z43" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA43" s="23"/>
       <c r="AB43" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AC43" s="23"/>
       <c r="AD43" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AE43" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF43" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG43" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH43" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AI43" s="23"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -7087,7 +6929,7 @@
       <c r="AH44" s="22"/>
       <c r="AI44" s="22"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -7120,7 +6962,7 @@
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -7153,7 +6995,7 @@
       <c r="AH46" s="22"/>
       <c r="AI46" s="22"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -7186,7 +7028,7 @@
       <c r="AH47" s="22"/>
       <c r="AI47" s="22"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8007,69 +7849,916 @@
     </row>
   </sheetData>
   <mergeCells count="1005">
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="AH72:AI72"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AH63:AI63"/>
-    <mergeCell ref="AH64:AI64"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AH66:AI66"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="AH69:AI69"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="AH54:AI54"/>
-    <mergeCell ref="AH55:AI55"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="AH61:AI61"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="AB68:AC68"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
@@ -8102,916 +8791,69 @@
     <mergeCell ref="AB69:AC69"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="AB68:AC68"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="AB63:AC63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="AB61:AC61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AH72:AI72"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AH63:AI63"/>
+    <mergeCell ref="AH64:AI64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AH66:AI66"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AH69:AI69"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="AH54:AI54"/>
+    <mergeCell ref="AH55:AI55"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="AH61:AI61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9022,7 +8864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56046C9-4091-4C92-B23D-1ABA9F9689AB}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
@@ -9033,7 +8875,7 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -9041,7 +8883,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="J1" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -9055,119 +8897,119 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="J3" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="J4" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="J5" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9177,53 +9019,53 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="J6" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -9233,214 +9075,214 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="J8" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="J11" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="J12" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="J13" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="J14" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="J15" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
@@ -9453,18 +9295,18 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
@@ -9477,18 +9319,18 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="J17" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
@@ -9501,18 +9343,18 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
@@ -9525,18 +9367,18 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="J19" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -9549,180 +9391,180 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="J20" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J21" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J22" s="22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J23" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J24" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J25" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J26" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J27" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J28" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J29" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
@@ -9813,29 +9655,104 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="Q14:S14"/>
@@ -9860,104 +9777,29 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
